--- a/Data Files/DataSet.xlsx
+++ b/Data Files/DataSet.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian.Romero\git\WEB-COTIZADOR_QUANTICO\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian.Romero\git\BT-Web-KS-COTIZADOR\BT-Web-KS-COTIZADOR\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3820B832-75F1-473F-B3B0-74333272170E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{16928C5C-AE7B-4DA6-87A9-64D4076B349D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="13176" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Folios" sheetId="1" r:id="rId1"/>
-    <sheet name="ClientesPendientes" sheetId="2" r:id="rId2"/>
+    <sheet name="Folios" r:id="rId1" sheetId="1"/>
+    <sheet name="ClientesPendientes" r:id="rId2" sheetId="2"/>
+    <sheet name="ESC-01" r:id="rId3" sheetId="3"/>
+    <sheet name="ESC-02" r:id="rId4" sheetId="5"/>
+    <sheet name="ESC-03" r:id="rId5" sheetId="6"/>
+    <sheet name="ESC-04" r:id="rId6" sheetId="7"/>
+    <sheet name="ESC-05" r:id="rId7" sheetId="8"/>
+    <sheet name="ESC-06" r:id="rId8" sheetId="9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="69">
   <si>
     <t>folio</t>
   </si>
@@ -49,22 +55,197 @@
     <t>DIAMANTE BIG</t>
   </si>
   <si>
-    <t>1481</t>
-  </si>
-  <si>
-    <t>1482</t>
-  </si>
-  <si>
-    <t>1484</t>
-  </si>
-  <si>
-    <t>1485</t>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>fernanda.rojas</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>tipoOperacion</t>
+  </si>
+  <si>
+    <t>tipoCompra</t>
+  </si>
+  <si>
+    <t>cotizacion</t>
+  </si>
+  <si>
+    <t>moneda</t>
+  </si>
+  <si>
+    <t>clienteRegistrado</t>
+  </si>
+  <si>
+    <t>importeAuto</t>
+  </si>
+  <si>
+    <t>nuevo</t>
+  </si>
+  <si>
+    <t>accesorio</t>
+  </si>
+  <si>
+    <t>formaPagoAccesorio</t>
+  </si>
+  <si>
+    <t>adaptacion</t>
+  </si>
+  <si>
+    <t>formaPagoAdaptacion</t>
+  </si>
+  <si>
+    <t>plazos</t>
+  </si>
+  <si>
+    <t>noRentasAnticipadas</t>
+  </si>
+  <si>
+    <t>noRentasDeposito</t>
+  </si>
+  <si>
+    <t>tipoPago</t>
+  </si>
+  <si>
+    <t>seguroCliente</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Colocado</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>financiado</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>PESOS</t>
+  </si>
+  <si>
+    <t>LeaseBack</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>DOLARES</t>
+  </si>
+  <si>
+    <t>contado</t>
+  </si>
+  <si>
+    <t>Financiado</t>
+  </si>
+  <si>
+    <t>Pago a Proveedor</t>
+  </si>
+  <si>
+    <t>Lote</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>ESC-04</t>
+  </si>
+  <si>
+    <t>ESTRUCTURADO AGRICOLA</t>
+  </si>
+  <si>
+    <t>ESC-01</t>
+  </si>
+  <si>
+    <t>ESC-02</t>
+  </si>
+  <si>
+    <t>ESC-03</t>
+  </si>
+  <si>
+    <t>nombreEscenario</t>
+  </si>
+  <si>
+    <t>ESC-05</t>
+  </si>
+  <si>
+    <t>ESC-06</t>
+  </si>
+  <si>
+    <t>ESTRUCTURADO PURO</t>
+  </si>
+  <si>
+    <t>ESTRUCTURADO FRONTERA</t>
+  </si>
+  <si>
+    <t>ARRENDAMIENTO AGRICOLA</t>
+  </si>
+  <si>
+    <t>ARRENDAMIENTO PURO</t>
+  </si>
+  <si>
+    <t>ARRENDAMIENTO FRONTERA</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>EKATERINA DMITRENOK NULL</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>Reestructura</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1527</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,16 +273,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -118,10 +302,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -156,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -191,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -285,21 +469,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -316,7 +500,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -368,18 +552,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,88 +578,968 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F226A1B-D8F6-4683-9B2A-5F6446A1E648}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F226A1B-D8F6-4683-9B2A-5F6446A1E648}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="47.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.6640625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="Accounts/0301bf04-a37c-11e9-8ce5-00155d96730d" display="http://172.20.4.82/unifin/ - Accounts/0301bf04-a37c-11e9-8ce5-00155d96730d" xr:uid="{5A0A08AE-FD89-4517-BD62-3C95C1C1B9F8}"/>
-    <hyperlink ref="A3" r:id="rId2" location="Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" display="http://172.20.4.82/unifin/ - Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" xr:uid="{5C6CCFD3-274C-4F13-ADB9-F029740D12E0}"/>
-    <hyperlink ref="A4" r:id="rId3" location="Accounts/115a08c2-0b94-11ec-b1c1-00155d962e00" display="http://172.20.4.82/unifin/ - Accounts/115a08c2-0b94-11ec-b1c1-00155d962e00" xr:uid="{17330DFC-FD35-4919-8233-12E9D948CAFD}"/>
+    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/0301bf04-a37c-11e9-8ce5-00155d96730d" location="Accounts/0301bf04-a37c-11e9-8ce5-00155d96730d" r:id="rId1" ref="A2" xr:uid="{5A0A08AE-FD89-4517-BD62-3C95C1C1B9F8}"/>
+    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" location="Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" r:id="rId2" ref="A3" xr:uid="{5C6CCFD3-274C-4F13-ADB9-F029740D12E0}"/>
+    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/115a08c2-0b94-11ec-b1c1-00155d962e00" location="Accounts/115a08c2-0b94-11ec-b1c1-00155d962e00" r:id="rId3" ref="A4" xr:uid="{17330DFC-FD35-4919-8233-12E9D948CAFD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId4" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CE3BDB-4267-45F2-A67B-6144E963F5D5}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" style="1" width="17.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1">
+        <v>676000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20ED126-869F-4419-A97B-74801449AA8E}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" style="1" width="17.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1">
+        <v>676000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734DA8D7-FCE9-4933-B356-C9806E101F8A}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" style="1" width="17.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B665D7-D3E0-4841-83B3-0F39ECD47D14}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" style="1" width="17.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C185C691-8676-494D-9C25-BBA522E54C09}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" style="1" width="17.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB720E8A-F3D8-4282-A461-9596B55B1DB2}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" style="1" width="17.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>